--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +391,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +438,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +484,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +593,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +640,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +686,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -771,10 +795,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -818,28 +842,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -864,28 +888,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -973,10 +997,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1020,28 +1044,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="3">
+      <c r="C31" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1066,28 +1090,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1204,10 +1228,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1251,28 +1275,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1297,28 +1321,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1406,10 +1430,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="3" t="s">
+      <c r="J44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1453,28 +1477,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="3">
+      <c r="A46" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="3">
+      <c r="C46" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1499,28 +1523,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="3">
+      <c r="I48" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1608,10 +1632,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="J51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1655,28 +1679,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="3">
+      <c r="C53" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1701,28 +1725,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1810,10 +1834,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="J58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1857,28 +1881,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="3">
+      <c r="A60" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="3">
+      <c r="C60" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1903,28 +1927,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="3">
+      <c r="C62" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="3">
+      <c r="D62" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="3">
+      <c r="I62" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2012,10 +2036,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3" t="s">
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2059,28 +2083,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="3">
+      <c r="C67" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2105,28 +2129,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2214,10 +2238,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="3" t="s">
+      <c r="J72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2261,28 +2285,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="3">
+      <c r="C74" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2307,28 +2331,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2445,10 +2469,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2492,28 +2516,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="3">
+      <c r="C82" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2538,28 +2562,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2821,10 +2845,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="3" t="s">
+      <c r="J93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2868,28 +2892,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="3">
+      <c r="C95" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2914,28 +2938,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="C97" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="3">
+      <c r="D97" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="3">
+      <c r="I97" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3023,10 +3047,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="3" t="s">
+      <c r="J100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3070,28 +3094,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="A102" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="3">
+      <c r="C102" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3116,28 +3140,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="3">
+      <c r="I104" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3341,10 +3365,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3388,28 +3412,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="3">
+      <c r="C113" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3434,28 +3458,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3688,10 +3712,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="3" t="s">
+      <c r="J123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3735,28 +3759,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="3">
+      <c r="A125" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="3">
+      <c r="C125" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3781,28 +3805,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="3">
+      <c r="I127" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4035,10 +4059,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="3" t="s">
+      <c r="J135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4082,28 +4106,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="3">
+      <c r="A137" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="3">
+      <c r="C137" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4128,28 +4152,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="3">
+      <c r="C139" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="3">
+      <c r="D139" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="3">
+      <c r="I139" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4295,10 +4319,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4342,28 +4366,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4388,28 +4412,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4671,10 +4695,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3" t="s">
+      <c r="J157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4718,28 +4742,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="3">
+      <c r="C159" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4764,28 +4788,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4897,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4944,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +4990,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5099,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5122,28 +5146,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5168,28 +5192,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5306,10 +5330,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="3" t="s">
+      <c r="J179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5353,28 +5377,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="3">
+      <c r="A181" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="3">
+      <c r="C181" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5399,28 +5423,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="3">
+      <c r="C183" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="3">
+      <c r="D183" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="3">
+      <c r="I183" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5595,10 +5619,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5642,28 +5666,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5688,28 +5712,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5942,10 +5966,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="3" t="s">
+      <c r="J201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5989,28 +6013,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="3">
+      <c r="A203" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="3">
+      <c r="B203" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="3">
+      <c r="C203" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="3">
+      <c r="E203" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="3">
+      <c r="F203" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="3">
+      <c r="G203" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="3">
+      <c r="H203" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6035,28 +6059,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="3">
+      <c r="C205" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="3">
+      <c r="D205" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="3">
+      <c r="I205" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6173,10 +6197,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="3" t="s">
+      <c r="J209" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6220,28 +6244,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="3">
+      <c r="A211" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="3">
+      <c r="C211" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6266,28 +6290,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="3">
+      <c r="B213" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="3">
+      <c r="C213" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="3">
+      <c r="D213" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="3">
+      <c r="E213" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="3">
+      <c r="F213" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="3">
+      <c r="G213" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="3">
+      <c r="H213" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="3">
+      <c r="I213" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6375,10 +6399,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="3" t="s">
+      <c r="J216" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6422,28 +6446,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="3">
+      <c r="A218" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="3">
+      <c r="C218" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6468,28 +6492,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="3">
+      <c r="C220" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="3">
+      <c r="D220" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="3">
+      <c r="I220" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6635,10 +6659,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6682,28 +6706,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6728,28 +6752,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6837,10 +6861,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="3" t="s">
+      <c r="J232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6884,28 +6908,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="3">
+      <c r="A234" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="3">
+      <c r="C234" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6930,28 +6954,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="3">
+      <c r="C236" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="3">
+      <c r="D236" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="3">
+      <c r="I236" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7068,10 +7092,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7115,28 +7139,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7161,28 +7185,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7241,10 +7265,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="3" t="s">
+      <c r="J246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
